--- a/Code/Results/Cases/Case_1_181/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_181/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.11601697157404</v>
+        <v>15.72110122154908</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.331239375311847</v>
+        <v>10.86645300597572</v>
       </c>
       <c r="E2">
-        <v>10.34115814373006</v>
+        <v>15.85710245078357</v>
       </c>
       <c r="F2">
-        <v>19.67742502985753</v>
+        <v>27.62890969647131</v>
       </c>
       <c r="G2">
-        <v>25.10331401711884</v>
+        <v>26.15632835382909</v>
       </c>
       <c r="H2">
-        <v>8.450582068785913</v>
+        <v>13.35883116385893</v>
       </c>
       <c r="I2">
-        <v>13.23426992688814</v>
+        <v>23.20505505144129</v>
       </c>
       <c r="J2">
-        <v>7.294453040591377</v>
+        <v>11.00179161324682</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.74108615585103</v>
+        <v>10.42157839338351</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.84699051552986</v>
+        <v>17.95041611132247</v>
       </c>
       <c r="O2">
-        <v>14.5893077584737</v>
+        <v>20.03406003332005</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.0728261082404</v>
+        <v>15.39775669499676</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.398169142669897</v>
+        <v>10.89836383576051</v>
       </c>
       <c r="E3">
-        <v>10.38301893005551</v>
+        <v>15.88829017821858</v>
       </c>
       <c r="F3">
-        <v>19.16839657935834</v>
+        <v>27.64339210720159</v>
       </c>
       <c r="G3">
-        <v>23.82588536074938</v>
+        <v>25.95545547908063</v>
       </c>
       <c r="H3">
-        <v>8.336239831498677</v>
+        <v>13.37925474599039</v>
       </c>
       <c r="I3">
-        <v>13.61411312848306</v>
+        <v>23.34204407962968</v>
       </c>
       <c r="J3">
-        <v>7.288836014992728</v>
+        <v>11.01075709708392</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.07010664784963</v>
+        <v>10.24747691145154</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.76369836347802</v>
+        <v>17.95019540338838</v>
       </c>
       <c r="O3">
-        <v>14.15732246518652</v>
+        <v>20.0256363005688</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.39810881184269</v>
+        <v>15.19704392683539</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.441341776715006</v>
+        <v>10.91909334185946</v>
       </c>
       <c r="E4">
-        <v>10.41133953278474</v>
+        <v>15.90889820399814</v>
       </c>
       <c r="F4">
-        <v>18.86663374033397</v>
+        <v>27.65941028952811</v>
       </c>
       <c r="G4">
-        <v>23.02861380953206</v>
+        <v>25.84042488367938</v>
       </c>
       <c r="H4">
-        <v>8.271038888927251</v>
+        <v>13.39424042917218</v>
       </c>
       <c r="I4">
-        <v>13.854107006074</v>
+        <v>23.4303965671893</v>
       </c>
       <c r="J4">
-        <v>7.286523162704282</v>
+        <v>11.01693260459831</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.634236900896353</v>
+        <v>10.13983451567429</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.71605863324863</v>
+        <v>17.95199361388906</v>
       </c>
       <c r="O4">
-        <v>13.89739049163639</v>
+        <v>20.02537553329542</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.11467797458637</v>
+        <v>15.11480747676658</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.459454714412792</v>
+        <v>10.92782716016354</v>
       </c>
       <c r="E5">
-        <v>10.42353706478532</v>
+        <v>15.91766391973884</v>
       </c>
       <c r="F5">
-        <v>18.7465053955944</v>
+        <v>27.66772870446966</v>
       </c>
       <c r="G5">
-        <v>22.70095175777455</v>
+        <v>25.7956885016043</v>
       </c>
       <c r="H5">
-        <v>8.245725685755852</v>
+        <v>13.40096188592164</v>
       </c>
       <c r="I5">
-        <v>13.95363539380849</v>
+        <v>23.46747018381384</v>
       </c>
       <c r="J5">
-        <v>7.285867411225853</v>
+        <v>11.01961843101268</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.450622287922576</v>
+        <v>10.09583141608646</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.69752647341513</v>
+        <v>17.95321482505318</v>
       </c>
       <c r="O5">
-        <v>13.79293611507217</v>
+        <v>20.02650583749865</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.06710663882227</v>
+        <v>15.10112842567191</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.46249367326504</v>
+        <v>10.92929472073184</v>
       </c>
       <c r="E6">
-        <v>10.4256020686118</v>
+        <v>15.91914170214326</v>
       </c>
       <c r="F6">
-        <v>18.72673353718224</v>
+        <v>27.66921808690353</v>
       </c>
       <c r="G6">
-        <v>22.64639211789466</v>
+        <v>25.78839067839761</v>
       </c>
       <c r="H6">
-        <v>8.241598222619832</v>
+        <v>13.40211509256405</v>
       </c>
       <c r="I6">
-        <v>13.97026720305684</v>
+        <v>23.47369089597121</v>
       </c>
       <c r="J6">
-        <v>7.285775873643018</v>
+        <v>11.02007465103203</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.419771730236256</v>
+        <v>10.08851785296955</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.69450246497831</v>
+        <v>17.95344716755871</v>
       </c>
       <c r="O6">
-        <v>13.77568429200333</v>
+        <v>20.02676823810838</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.3943205080157</v>
+        <v>15.19593651748291</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.441583952984546</v>
+        <v>10.91920996873526</v>
       </c>
       <c r="E7">
-        <v>10.41150137631714</v>
+        <v>15.90901493106248</v>
       </c>
       <c r="F7">
-        <v>18.8650019705269</v>
+        <v>27.65951522545534</v>
       </c>
       <c r="G7">
-        <v>23.02420535803396</v>
+        <v>25.8398128265319</v>
       </c>
       <c r="H7">
-        <v>8.270692423040165</v>
+        <v>13.39432858878686</v>
       </c>
       <c r="I7">
-        <v>13.85544224521235</v>
+        <v>23.43089222168294</v>
       </c>
       <c r="J7">
-        <v>7.286513156566164</v>
+        <v>11.01696814046587</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.631784857392599</v>
+        <v>10.13924156763264</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.71580513276587</v>
+        <v>17.95200810315272</v>
       </c>
       <c r="O7">
-        <v>13.89597565216059</v>
+        <v>20.02538576874617</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.76348379132381</v>
+        <v>15.61012488392778</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.353883878533134</v>
+        <v>10.87722047127291</v>
       </c>
       <c r="E8">
-        <v>10.35504740228084</v>
+        <v>15.86755383655238</v>
       </c>
       <c r="F8">
-        <v>19.49975455495655</v>
+        <v>27.63242393730417</v>
       </c>
       <c r="G8">
-        <v>24.66580628751272</v>
+        <v>26.08537533367435</v>
       </c>
       <c r="H8">
-        <v>8.410117753659609</v>
+        <v>13.36536551669054</v>
       </c>
       <c r="I8">
-        <v>13.36385151776851</v>
+        <v>23.25141047499483</v>
       </c>
       <c r="J8">
-        <v>7.292281185476483</v>
+        <v>11.00474408426884</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.51469427986593</v>
+        <v>10.36173155992696</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.81754525766617</v>
+        <v>17.94993999688025</v>
       </c>
       <c r="O8">
-        <v>14.43933785576271</v>
+        <v>20.03013733646303</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.17336038593219</v>
+        <v>16.40072587711343</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.198523654613107</v>
+        <v>10.80386253285911</v>
       </c>
       <c r="E9">
-        <v>10.26518914417058</v>
+        <v>15.79777813242569</v>
       </c>
       <c r="F9">
-        <v>20.8241056416157</v>
+        <v>27.63584259337463</v>
       </c>
       <c r="G9">
-        <v>27.76492031555075</v>
+        <v>26.63037901144229</v>
       </c>
       <c r="H9">
-        <v>8.723190427964941</v>
+        <v>13.32798142138264</v>
       </c>
       <c r="I9">
-        <v>12.45228112974802</v>
+        <v>22.93296082623348</v>
       </c>
       <c r="J9">
-        <v>7.31255647595615</v>
+        <v>10.9860672766546</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.05647604557501</v>
+        <v>10.79004098257985</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.0447823828474</v>
+        <v>17.96112994543564</v>
       </c>
       <c r="O9">
-        <v>15.54123835769132</v>
+        <v>20.0783220029252</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.7729521460993</v>
+        <v>16.96290179542486</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.094727175494801</v>
+        <v>10.7553991819939</v>
       </c>
       <c r="E10">
-        <v>10.2119891931161</v>
+        <v>15.7534820975524</v>
       </c>
       <c r="F10">
-        <v>21.83773817402415</v>
+        <v>27.67277006734026</v>
       </c>
       <c r="G10">
-        <v>29.95009919568798</v>
+        <v>27.06592369426189</v>
       </c>
       <c r="H10">
-        <v>8.977144163370268</v>
+        <v>13.31235480294112</v>
       </c>
       <c r="I10">
-        <v>11.81268295027391</v>
+        <v>22.71923642968561</v>
       </c>
       <c r="J10">
-        <v>7.332849807357904</v>
+        <v>10.97553702052582</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.07405148124866</v>
+        <v>11.09714233129641</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.22852274409556</v>
+        <v>17.97851072755635</v>
       </c>
       <c r="O10">
-        <v>16.3657768410838</v>
+        <v>20.13722734445039</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.46755547220472</v>
+        <v>17.21352963674509</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.049811791176668</v>
+        <v>10.73452234922263</v>
       </c>
       <c r="E11">
-        <v>10.19059614568053</v>
+        <v>15.73483088786111</v>
       </c>
       <c r="F11">
-        <v>22.30611762858231</v>
+        <v>27.69700847570504</v>
       </c>
       <c r="G11">
-        <v>30.92161733527907</v>
+        <v>27.270869506366</v>
       </c>
       <c r="H11">
-        <v>9.097783336270005</v>
+        <v>13.30781491846194</v>
       </c>
       <c r="I11">
-        <v>11.52784295247476</v>
+        <v>22.62636221658476</v>
       </c>
       <c r="J11">
-        <v>7.343238467734323</v>
+        <v>10.97143181716482</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.51216491301969</v>
+        <v>11.23466612689214</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.31572073177911</v>
+        <v>17.98837589192602</v>
       </c>
       <c r="O11">
-        <v>16.7428033281894</v>
+        <v>20.16906988584222</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.73696427693768</v>
+        <v>17.30761963696663</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.033140388194056</v>
+        <v>10.72678429851267</v>
       </c>
       <c r="E12">
-        <v>10.18290120706995</v>
+        <v>15.72798272967408</v>
       </c>
       <c r="F12">
-        <v>22.48440753650019</v>
+        <v>27.70725202236663</v>
       </c>
       <c r="G12">
-        <v>31.28611653803322</v>
+        <v>27.34938458649865</v>
       </c>
       <c r="H12">
-        <v>9.144192224078306</v>
+        <v>13.30646472490206</v>
       </c>
       <c r="I12">
-        <v>11.42082693307694</v>
+        <v>22.59181570547146</v>
       </c>
       <c r="J12">
-        <v>7.347337390126853</v>
+        <v>10.96997514294618</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.67452364398504</v>
+        <v>11.28638721100461</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.34925575457674</v>
+        <v>17.99239039224723</v>
       </c>
       <c r="O12">
-        <v>16.8857575160151</v>
+        <v>20.1818470251911</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.67921326433357</v>
+        <v>17.28739328007677</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.036715776996916</v>
+        <v>10.72844338377855</v>
       </c>
       <c r="E13">
-        <v>10.18454034680606</v>
+        <v>15.72944807148627</v>
       </c>
       <c r="F13">
-        <v>22.44597027676483</v>
+        <v>27.70499861508574</v>
       </c>
       <c r="G13">
-        <v>31.20776797488529</v>
+        <v>27.33243582533153</v>
       </c>
       <c r="H13">
-        <v>9.134165135435889</v>
+        <v>13.30673911195799</v>
       </c>
       <c r="I13">
-        <v>11.44383762095346</v>
+        <v>22.59922825055397</v>
       </c>
       <c r="J13">
-        <v>7.346447299827434</v>
+        <v>10.97028452083847</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.63971412552059</v>
+        <v>11.27526465309582</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.34201055773374</v>
+        <v>17.99151344586474</v>
       </c>
       <c r="O13">
-        <v>16.85496304900012</v>
+        <v>20.17906337332498</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.48984208418415</v>
+        <v>17.22128731193709</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.048433431917984</v>
+        <v>10.73388238056186</v>
       </c>
       <c r="E14">
-        <v>10.18995492451848</v>
+        <v>15.73426318926566</v>
       </c>
       <c r="F14">
-        <v>22.32076776101866</v>
+        <v>27.69782990636519</v>
       </c>
       <c r="G14">
-        <v>30.95167362420687</v>
+        <v>27.27731124664161</v>
       </c>
       <c r="H14">
-        <v>9.1015869420236</v>
+        <v>13.3076964456544</v>
       </c>
       <c r="I14">
-        <v>11.51902190164317</v>
+        <v>22.62350758452149</v>
       </c>
       <c r="J14">
-        <v>7.343572390633941</v>
+        <v>10.97131001774452</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.52559319570982</v>
+        <v>11.23892862869833</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.31846938370546</v>
+        <v>17.98870059697299</v>
       </c>
       <c r="O14">
-        <v>16.75456110253369</v>
+        <v>20.17010669855864</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.37347362781763</v>
+        <v>17.1806866988249</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.055654923806314</v>
+        <v>10.73723572564878</v>
       </c>
       <c r="E15">
-        <v>10.19332447495857</v>
+        <v>15.73724051369981</v>
       </c>
       <c r="F15">
-        <v>22.24419466016719</v>
+        <v>27.69357739458954</v>
       </c>
       <c r="G15">
-        <v>30.7943627638647</v>
+        <v>27.24366170461169</v>
       </c>
       <c r="H15">
-        <v>9.081726033563175</v>
+        <v>13.30833087472947</v>
       </c>
       <c r="I15">
-        <v>11.56518372329309</v>
+        <v>22.63846042580346</v>
       </c>
       <c r="J15">
-        <v>7.341832866293029</v>
+        <v>10.97195089180871</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.45522974985248</v>
+        <v>11.21662413923343</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.30411666567352</v>
+        <v>17.98701386391728</v>
       </c>
       <c r="O15">
-        <v>16.6930831413471</v>
+        <v>20.16471390922524</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.72708766451767</v>
+        <v>16.94641267967791</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.097709324714223</v>
+        <v>10.75678701142815</v>
       </c>
       <c r="E16">
-        <v>10.21344398010146</v>
+        <v>15.75473108656628</v>
       </c>
       <c r="F16">
-        <v>21.80726419510183</v>
+        <v>27.67133535038763</v>
       </c>
       <c r="G16">
-        <v>29.88614054911032</v>
+        <v>27.05266089568297</v>
       </c>
       <c r="H16">
-        <v>8.969362176251392</v>
+        <v>13.31270315252546</v>
       </c>
       <c r="I16">
-        <v>11.83141820365747</v>
+        <v>22.72539329000521</v>
       </c>
       <c r="J16">
-        <v>7.332194045925382</v>
+        <v>10.97581903635584</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.04492250651272</v>
+        <v>11.08810727494226</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.22289648097959</v>
+        <v>17.97790518501367</v>
       </c>
       <c r="O16">
-        <v>16.34116774699912</v>
+        <v>20.13524735987655</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.32096215644994</v>
+        <v>16.80132408190906</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.124102025139284</v>
+        <v>10.76908016865602</v>
       </c>
       <c r="E17">
-        <v>10.226507449795</v>
+        <v>15.76584431580943</v>
       </c>
       <c r="F17">
-        <v>21.54099431979759</v>
+        <v>27.65959301398279</v>
       </c>
       <c r="G17">
-        <v>29.32307968504315</v>
+        <v>26.93718179428405</v>
       </c>
       <c r="H17">
-        <v>8.901733506095397</v>
+        <v>13.31604307229713</v>
       </c>
       <c r="I17">
-        <v>11.9962878902353</v>
+        <v>22.77983609032044</v>
       </c>
       <c r="J17">
-        <v>7.326576291471233</v>
+        <v>10.97836702928848</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.78687617819579</v>
+        <v>11.00867720747127</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.17399290794266</v>
+        <v>17.97281693905819</v>
       </c>
       <c r="O17">
-        <v>16.12570293724743</v>
+        <v>20.11845864112016</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.08384992289093</v>
+        <v>16.71739668763436</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.139498692583727</v>
+        <v>10.77626097165461</v>
       </c>
       <c r="E18">
-        <v>10.23428535209604</v>
+        <v>15.77237752702514</v>
       </c>
       <c r="F18">
-        <v>21.38853404534845</v>
+        <v>27.65353977506753</v>
       </c>
       <c r="G18">
-        <v>28.99710714141592</v>
+        <v>26.87140718819145</v>
       </c>
       <c r="H18">
-        <v>8.863317313123073</v>
+        <v>13.31820592326053</v>
       </c>
       <c r="I18">
-        <v>12.09169429609151</v>
+        <v>22.81155975363322</v>
       </c>
       <c r="J18">
-        <v>7.323454108049657</v>
+        <v>10.97989708703695</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.63612032915237</v>
+        <v>10.96278855326996</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.14620529604462</v>
+        <v>17.9700748417575</v>
       </c>
       <c r="O18">
-        <v>16.00196081171004</v>
+        <v>20.10927763708429</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.00296384182238</v>
+        <v>16.68890112433609</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.144748715353364</v>
+        <v>10.77871119715397</v>
       </c>
       <c r="E19">
-        <v>10.23696411267476</v>
+        <v>15.77461383591557</v>
       </c>
       <c r="F19">
-        <v>21.3370362039868</v>
+        <v>27.65161071818671</v>
       </c>
       <c r="G19">
-        <v>28.88638071709514</v>
+        <v>26.8492501795541</v>
       </c>
       <c r="H19">
-        <v>8.850393338153724</v>
+        <v>13.31897976998206</v>
       </c>
       <c r="I19">
-        <v>12.12409747755548</v>
+        <v>22.82237127055237</v>
       </c>
       <c r="J19">
-        <v>7.322415754865938</v>
+        <v>10.98042623883921</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.58467552984655</v>
+        <v>10.94721799476713</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.13685549091687</v>
+        <v>17.96917819281291</v>
       </c>
       <c r="O19">
-        <v>15.96009922579261</v>
+        <v>20.10625094719841</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.36455929241814</v>
+        <v>16.8168189195425</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.121270051303637</v>
+        <v>10.76776015012523</v>
       </c>
       <c r="E20">
-        <v>10.22508946696959</v>
+        <v>15.76464668927905</v>
       </c>
       <c r="F20">
-        <v>21.56926859127338</v>
+        <v>27.66077052353129</v>
       </c>
       <c r="G20">
-        <v>29.38323862241713</v>
+        <v>26.9494084174126</v>
       </c>
       <c r="H20">
-        <v>8.908882876817563</v>
+        <v>13.31566250745844</v>
       </c>
       <c r="I20">
-        <v>11.97867767386633</v>
+        <v>22.77399818766056</v>
       </c>
       <c r="J20">
-        <v>7.327163040269791</v>
+        <v>10.97808911813324</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.81458712832627</v>
+        <v>11.01715395819801</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.17916357567523</v>
+        <v>17.9733395140287</v>
       </c>
       <c r="O20">
-        <v>16.14862086750935</v>
+        <v>20.12019666923957</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.54563044304016</v>
+        <v>17.24072705055156</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.044982472444747</v>
+        <v>10.73228027280916</v>
       </c>
       <c r="E21">
-        <v>10.18835348940482</v>
+        <v>15.73284305443662</v>
       </c>
       <c r="F21">
-        <v>22.3575185785601</v>
+        <v>27.6999066707562</v>
       </c>
       <c r="G21">
-        <v>31.02698782770001</v>
+        <v>27.29347866085748</v>
       </c>
       <c r="H21">
-        <v>9.11113633894908</v>
+        <v>13.30740524416211</v>
       </c>
       <c r="I21">
-        <v>11.49691574195834</v>
+        <v>22.61635926983292</v>
       </c>
       <c r="J21">
-        <v>7.344412355502786</v>
+        <v>10.97100615316399</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.55920932923271</v>
+        <v>11.2496113985777</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.32537005751434</v>
+        <v>17.98951925631935</v>
       </c>
       <c r="O21">
-        <v>16.78404733720918</v>
+        <v>20.17271803275302</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.3184764422643</v>
+        <v>17.51297709957049</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.997092259166183</v>
+        <v>10.71006847225568</v>
       </c>
       <c r="E22">
-        <v>10.16671295211314</v>
+        <v>15.71330824768128</v>
       </c>
       <c r="F22">
-        <v>22.8780290899667</v>
+        <v>27.73168892013685</v>
       </c>
       <c r="G22">
-        <v>32.08145462903044</v>
+        <v>27.52359744826172</v>
       </c>
       <c r="H22">
-        <v>9.247544566524576</v>
+        <v>13.30415892965091</v>
       </c>
       <c r="I22">
-        <v>11.1869759774408</v>
+        <v>22.51696289419995</v>
       </c>
       <c r="J22">
-        <v>7.356646651900026</v>
+        <v>10.96694723157335</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>14.02520938021379</v>
+        <v>11.39944122322631</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.42392412845135</v>
+        <v>18.00171717074946</v>
       </c>
       <c r="O22">
-        <v>17.20036387352934</v>
+        <v>20.21123134348308</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.90923456617309</v>
+        <v>17.36813706041096</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.022469881343003</v>
+        <v>10.72183418989965</v>
       </c>
       <c r="E23">
-        <v>10.17804536205565</v>
+        <v>15.72362021387983</v>
       </c>
       <c r="F23">
-        <v>22.59977050483151</v>
+        <v>27.71416031839676</v>
       </c>
       <c r="G23">
-        <v>31.52051756333562</v>
+        <v>27.40032306807642</v>
       </c>
       <c r="H23">
-        <v>9.174357746111813</v>
+        <v>13.30569497826824</v>
       </c>
       <c r="I23">
-        <v>11.35195756389742</v>
+        <v>22.56968133851236</v>
       </c>
       <c r="J23">
-        <v>7.350029527763072</v>
+        <v>10.96906159135323</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.77837902184108</v>
+        <v>11.31967951148962</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.37105109540492</v>
+        <v>17.99505933657598</v>
       </c>
       <c r="O23">
-        <v>16.9781020493999</v>
+        <v>20.19029530199828</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.34486031816795</v>
+        <v>16.80981529816204</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.122549692050971</v>
+        <v>10.76835657754333</v>
       </c>
       <c r="E24">
-        <v>10.22572970385627</v>
+        <v>15.7651876874184</v>
       </c>
       <c r="F24">
-        <v>21.55648384694499</v>
+        <v>27.66023599817685</v>
       </c>
       <c r="G24">
-        <v>29.35604779822707</v>
+        <v>26.94387883714631</v>
       </c>
       <c r="H24">
-        <v>8.905649198955288</v>
+        <v>13.31583380482975</v>
       </c>
       <c r="I24">
-        <v>11.98663731709627</v>
+        <v>22.77663618323279</v>
       </c>
       <c r="J24">
-        <v>7.326897436070825</v>
+        <v>10.97821455868518</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.80206648954824</v>
+        <v>11.01332231127518</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.17682489572417</v>
+        <v>17.97310268700832</v>
       </c>
       <c r="O24">
-        <v>16.13825925426518</v>
+        <v>20.11940943892816</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.55128748470796</v>
+        <v>16.18974855795266</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.238753225953207</v>
+        <v>10.82275061843148</v>
       </c>
       <c r="E25">
-        <v>10.2872552409889</v>
+        <v>15.81542625837454</v>
       </c>
       <c r="F25">
-        <v>20.45813806301035</v>
+        <v>27.62886571746366</v>
       </c>
       <c r="G25">
-        <v>26.94154360940678</v>
+        <v>26.47650109825117</v>
       </c>
       <c r="H25">
-        <v>8.634265790896411</v>
+        <v>13.33601546595847</v>
       </c>
       <c r="I25">
-        <v>12.69345744526618</v>
+        <v>23.01554179400678</v>
       </c>
       <c r="J25">
-        <v>7.306118545422096</v>
+        <v>10.99055674280859</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.65966071969717</v>
+        <v>10.67531323344015</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.98034948976954</v>
+        <v>17.95648408536181</v>
       </c>
       <c r="O25">
-        <v>15.24002676709563</v>
+        <v>20.06114194036396</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_181/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_181/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.72110122154908</v>
+        <v>17.11601697157404</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.86645300597572</v>
+        <v>6.331239375311849</v>
       </c>
       <c r="E2">
-        <v>15.85710245078357</v>
+        <v>10.34115814373012</v>
       </c>
       <c r="F2">
-        <v>27.62890969647131</v>
+        <v>19.6774250298575</v>
       </c>
       <c r="G2">
-        <v>26.15632835382909</v>
+        <v>25.10331401711878</v>
       </c>
       <c r="H2">
-        <v>13.35883116385893</v>
+        <v>8.450582068785923</v>
       </c>
       <c r="I2">
-        <v>23.20505505144129</v>
+        <v>13.23426992688811</v>
       </c>
       <c r="J2">
-        <v>11.00179161324682</v>
+        <v>7.294453040591412</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.42157839338351</v>
+        <v>10.74108615585099</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.95041611132247</v>
+        <v>13.84699051552986</v>
       </c>
       <c r="O2">
-        <v>20.03406003332005</v>
+        <v>14.58930775847368</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.39775669499676</v>
+        <v>16.07282610824041</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.89836383576051</v>
+        <v>6.398169142669899</v>
       </c>
       <c r="E3">
-        <v>15.88829017821858</v>
+        <v>10.38301893005551</v>
       </c>
       <c r="F3">
-        <v>27.64339210720159</v>
+        <v>19.1683965793583</v>
       </c>
       <c r="G3">
-        <v>25.95545547908063</v>
+        <v>23.82588536074935</v>
       </c>
       <c r="H3">
-        <v>13.37925474599039</v>
+        <v>8.336239831498672</v>
       </c>
       <c r="I3">
-        <v>23.34204407962968</v>
+        <v>13.61411312848306</v>
       </c>
       <c r="J3">
-        <v>11.01075709708392</v>
+        <v>7.288836014992761</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.24747691145154</v>
+        <v>10.07010664784963</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.95019540338838</v>
+        <v>13.76369836347802</v>
       </c>
       <c r="O3">
-        <v>20.0256363005688</v>
+        <v>14.1573224651865</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.19704392683539</v>
+        <v>15.39810881184267</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.91909334185946</v>
+        <v>6.441341776715007</v>
       </c>
       <c r="E4">
-        <v>15.90889820399814</v>
+        <v>10.4113395327846</v>
       </c>
       <c r="F4">
-        <v>27.65941028952811</v>
+        <v>18.86663374033393</v>
       </c>
       <c r="G4">
-        <v>25.84042488367938</v>
+        <v>23.02861380953194</v>
       </c>
       <c r="H4">
-        <v>13.39424042917218</v>
+        <v>8.271038888927308</v>
       </c>
       <c r="I4">
-        <v>23.4303965671893</v>
+        <v>13.85410700607394</v>
       </c>
       <c r="J4">
-        <v>11.01693260459831</v>
+        <v>7.28652316270421</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.13983451567429</v>
+        <v>9.634236900896385</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.95199361388906</v>
+        <v>13.7160586332486</v>
       </c>
       <c r="O4">
-        <v>20.02537553329542</v>
+        <v>13.89739049163638</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.11480747676658</v>
+        <v>15.11467797458637</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.92782716016354</v>
+        <v>6.459454714412797</v>
       </c>
       <c r="E5">
-        <v>15.91766391973884</v>
+        <v>10.42353706478519</v>
       </c>
       <c r="F5">
-        <v>27.66772870446966</v>
+        <v>18.74650539559446</v>
       </c>
       <c r="G5">
-        <v>25.7956885016043</v>
+        <v>22.70095175777461</v>
       </c>
       <c r="H5">
-        <v>13.40096188592164</v>
+        <v>8.245725685755858</v>
       </c>
       <c r="I5">
-        <v>23.46747018381384</v>
+        <v>13.95363539380849</v>
       </c>
       <c r="J5">
-        <v>11.01961843101268</v>
+        <v>7.285867411225752</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.09583141608646</v>
+        <v>9.450622287922592</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.95321482505318</v>
+        <v>13.69752647341509</v>
       </c>
       <c r="O5">
-        <v>20.02650583749865</v>
+        <v>13.79293611507221</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.10112842567191</v>
+        <v>15.06710663882228</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.92929472073184</v>
+        <v>6.46249367326504</v>
       </c>
       <c r="E6">
-        <v>15.91914170214326</v>
+        <v>10.42560206861173</v>
       </c>
       <c r="F6">
-        <v>27.66921808690353</v>
+        <v>18.72673353718224</v>
       </c>
       <c r="G6">
-        <v>25.78839067839761</v>
+        <v>22.64639211789464</v>
       </c>
       <c r="H6">
-        <v>13.40211509256405</v>
+        <v>8.241598222619832</v>
       </c>
       <c r="I6">
-        <v>23.47369089597121</v>
+        <v>13.97026720305677</v>
       </c>
       <c r="J6">
-        <v>11.02007465103203</v>
+        <v>7.285775873642949</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.08851785296955</v>
+        <v>9.419771730236244</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.95344716755871</v>
+        <v>13.6945024649783</v>
       </c>
       <c r="O6">
-        <v>20.02676823810838</v>
+        <v>13.77568429200333</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.19593651748291</v>
+        <v>15.39432050801567</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.91920996873526</v>
+        <v>6.441583952984542</v>
       </c>
       <c r="E7">
-        <v>15.90901493106248</v>
+        <v>10.41150137631701</v>
       </c>
       <c r="F7">
-        <v>27.65951522545534</v>
+        <v>18.86500197052687</v>
       </c>
       <c r="G7">
-        <v>25.8398128265319</v>
+        <v>23.02420535803394</v>
       </c>
       <c r="H7">
-        <v>13.39432858878686</v>
+        <v>8.27069242304016</v>
       </c>
       <c r="I7">
-        <v>23.43089222168294</v>
+        <v>13.85544224521225</v>
       </c>
       <c r="J7">
-        <v>11.01696814046587</v>
+        <v>7.286513156566097</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.13924156763264</v>
+        <v>9.631784857392564</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.95200810315272</v>
+        <v>13.71580513276584</v>
       </c>
       <c r="O7">
-        <v>20.02538576874617</v>
+        <v>13.89597565216058</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.61012488392778</v>
+        <v>16.76348379132381</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.87722047127291</v>
+        <v>6.353883878533001</v>
       </c>
       <c r="E8">
-        <v>15.86755383655238</v>
+        <v>10.35504740228084</v>
       </c>
       <c r="F8">
-        <v>27.63242393730417</v>
+        <v>19.49975455495639</v>
       </c>
       <c r="G8">
-        <v>26.08537533367435</v>
+        <v>24.6658062875127</v>
       </c>
       <c r="H8">
-        <v>13.36536551669054</v>
+        <v>8.410117753659515</v>
       </c>
       <c r="I8">
-        <v>23.25141047499483</v>
+        <v>13.36385151776841</v>
       </c>
       <c r="J8">
-        <v>11.00474408426884</v>
+        <v>7.292281185476577</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.36173155992696</v>
+        <v>10.51469427986595</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.94993999688025</v>
+        <v>13.81754525766607</v>
       </c>
       <c r="O8">
-        <v>20.03013733646303</v>
+        <v>14.43933785576263</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.40072587711343</v>
+        <v>19.17336038593221</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.80386253285911</v>
+        <v>6.19852365461311</v>
       </c>
       <c r="E9">
-        <v>15.79777813242569</v>
+        <v>10.26518914417064</v>
       </c>
       <c r="F9">
-        <v>27.63584259337463</v>
+        <v>20.82410564161573</v>
       </c>
       <c r="G9">
-        <v>26.63037901144229</v>
+        <v>27.76492031555076</v>
       </c>
       <c r="H9">
-        <v>13.32798142138264</v>
+        <v>8.723190427964953</v>
       </c>
       <c r="I9">
-        <v>22.93296082623348</v>
+        <v>12.45228112974809</v>
       </c>
       <c r="J9">
-        <v>10.9860672766546</v>
+        <v>7.312556475956213</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.79004098257985</v>
+        <v>12.05647604557499</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.96112994543564</v>
+        <v>14.04478238284742</v>
       </c>
       <c r="O9">
-        <v>20.0783220029252</v>
+        <v>15.54123835769133</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.96290179542486</v>
+        <v>20.77295214609934</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.7553991819939</v>
+        <v>6.094727175494734</v>
       </c>
       <c r="E10">
-        <v>15.7534820975524</v>
+        <v>10.21198919311597</v>
       </c>
       <c r="F10">
-        <v>27.67277006734026</v>
+        <v>21.83773817402411</v>
       </c>
       <c r="G10">
-        <v>27.06592369426189</v>
+        <v>29.950099195688</v>
       </c>
       <c r="H10">
-        <v>13.31235480294112</v>
+        <v>8.97714416337026</v>
       </c>
       <c r="I10">
-        <v>22.71923642968561</v>
+        <v>11.81268295027391</v>
       </c>
       <c r="J10">
-        <v>10.97553702052582</v>
+        <v>7.332849807357876</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.09714233129641</v>
+        <v>13.07405148124866</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.97851072755635</v>
+        <v>14.22852274409559</v>
       </c>
       <c r="O10">
-        <v>20.13722734445039</v>
+        <v>16.36577684108379</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.21352963674509</v>
+        <v>21.4675554722047</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.73452234922263</v>
+        <v>6.049811791176734</v>
       </c>
       <c r="E11">
-        <v>15.73483088786111</v>
+        <v>10.19059614568053</v>
       </c>
       <c r="F11">
-        <v>27.69700847570504</v>
+        <v>22.30611762858237</v>
       </c>
       <c r="G11">
-        <v>27.270869506366</v>
+        <v>30.9216173352791</v>
       </c>
       <c r="H11">
-        <v>13.30781491846194</v>
+        <v>9.09778333627008</v>
       </c>
       <c r="I11">
-        <v>22.62636221658476</v>
+        <v>11.52784295247476</v>
       </c>
       <c r="J11">
-        <v>10.97143181716482</v>
+        <v>7.343238467734324</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.23466612689214</v>
+        <v>13.51216491301967</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.98837589192602</v>
+        <v>14.31572073177911</v>
       </c>
       <c r="O11">
-        <v>20.16906988584222</v>
+        <v>16.74280332818942</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.30761963696663</v>
+        <v>21.73696427693769</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.72678429851267</v>
+        <v>6.033140388193989</v>
       </c>
       <c r="E12">
-        <v>15.72798272967408</v>
+        <v>10.18290120707</v>
       </c>
       <c r="F12">
-        <v>27.70725202236663</v>
+        <v>22.48440753650016</v>
       </c>
       <c r="G12">
-        <v>27.34938458649865</v>
+        <v>31.28611653803322</v>
       </c>
       <c r="H12">
-        <v>13.30646472490206</v>
+        <v>9.14419222407828</v>
       </c>
       <c r="I12">
-        <v>22.59181570547146</v>
+        <v>11.42082693307694</v>
       </c>
       <c r="J12">
-        <v>10.96997514294618</v>
+        <v>7.34733739012691</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.28638721100461</v>
+        <v>13.67452364398506</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.99239039224723</v>
+        <v>14.34925575457674</v>
       </c>
       <c r="O12">
-        <v>20.1818470251911</v>
+        <v>16.88575751601507</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.28739328007677</v>
+        <v>21.67921326433358</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.72844338377855</v>
+        <v>6.036715776996719</v>
       </c>
       <c r="E13">
-        <v>15.72944807148627</v>
+        <v>10.18454034680605</v>
       </c>
       <c r="F13">
-        <v>27.70499861508574</v>
+        <v>22.44597027676481</v>
       </c>
       <c r="G13">
-        <v>27.33243582533153</v>
+        <v>31.20776797488527</v>
       </c>
       <c r="H13">
-        <v>13.30673911195799</v>
+        <v>9.134165135435911</v>
       </c>
       <c r="I13">
-        <v>22.59922825055397</v>
+        <v>11.44383762095346</v>
       </c>
       <c r="J13">
-        <v>10.97028452083847</v>
+        <v>7.346447299827466</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.27526465309582</v>
+        <v>13.63971412552058</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.99151344586474</v>
+        <v>14.34201055773373</v>
       </c>
       <c r="O13">
-        <v>20.17906337332498</v>
+        <v>16.85496304900013</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.22128731193709</v>
+        <v>21.48984208418418</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.73388238056186</v>
+        <v>6.048433431917853</v>
       </c>
       <c r="E14">
-        <v>15.73426318926566</v>
+        <v>10.18995492451848</v>
       </c>
       <c r="F14">
-        <v>27.69782990636519</v>
+        <v>22.32076776101858</v>
       </c>
       <c r="G14">
-        <v>27.27731124664161</v>
+        <v>30.95167362420684</v>
       </c>
       <c r="H14">
-        <v>13.3076964456544</v>
+        <v>9.101586942023529</v>
       </c>
       <c r="I14">
-        <v>22.62350758452149</v>
+        <v>11.51902190164314</v>
       </c>
       <c r="J14">
-        <v>10.97131001774452</v>
+        <v>7.343572390633946</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.23892862869833</v>
+        <v>13.52559319570986</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.98870059697299</v>
+        <v>14.31846938370546</v>
       </c>
       <c r="O14">
-        <v>20.17010669855864</v>
+        <v>16.75456110253364</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.1806866988249</v>
+        <v>21.37347362781761</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.73723572564878</v>
+        <v>6.055654923806382</v>
       </c>
       <c r="E15">
-        <v>15.73724051369981</v>
+        <v>10.19332447495864</v>
       </c>
       <c r="F15">
-        <v>27.69357739458954</v>
+        <v>22.24419466016719</v>
       </c>
       <c r="G15">
-        <v>27.24366170461169</v>
+        <v>30.7943627638647</v>
       </c>
       <c r="H15">
-        <v>13.30833087472947</v>
+        <v>9.081726033563168</v>
       </c>
       <c r="I15">
-        <v>22.63846042580346</v>
+        <v>11.5651837232931</v>
       </c>
       <c r="J15">
-        <v>10.97195089180871</v>
+        <v>7.341832866293026</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.21662413923343</v>
+        <v>13.45522974985247</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.98701386391728</v>
+        <v>14.30411666567353</v>
       </c>
       <c r="O15">
-        <v>20.16471390922524</v>
+        <v>16.69308314134709</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.94641267967791</v>
+        <v>20.72708766451768</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.75678701142815</v>
+        <v>6.097709324714289</v>
       </c>
       <c r="E16">
-        <v>15.75473108656628</v>
+        <v>10.21344398010133</v>
       </c>
       <c r="F16">
-        <v>27.67133535038763</v>
+        <v>21.80726419510181</v>
       </c>
       <c r="G16">
-        <v>27.05266089568297</v>
+        <v>29.88614054911031</v>
       </c>
       <c r="H16">
-        <v>13.31270315252546</v>
+        <v>8.969362176251327</v>
       </c>
       <c r="I16">
-        <v>22.72539329000521</v>
+        <v>11.83141820365737</v>
       </c>
       <c r="J16">
-        <v>10.97581903635584</v>
+        <v>7.332194045925286</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.08810727494226</v>
+        <v>13.04492250651274</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.97790518501367</v>
+        <v>14.22289648097959</v>
       </c>
       <c r="O16">
-        <v>20.13524735987655</v>
+        <v>16.34116774699909</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.80132408190906</v>
+        <v>20.32096215644996</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.76908016865602</v>
+        <v>6.124102025139214</v>
       </c>
       <c r="E17">
-        <v>15.76584431580943</v>
+        <v>10.22650744979499</v>
       </c>
       <c r="F17">
-        <v>27.65959301398279</v>
+        <v>21.54099431979756</v>
       </c>
       <c r="G17">
-        <v>26.93718179428405</v>
+        <v>29.3230796850431</v>
       </c>
       <c r="H17">
-        <v>13.31604307229713</v>
+        <v>8.901733506095388</v>
       </c>
       <c r="I17">
-        <v>22.77983609032044</v>
+        <v>11.99628789023533</v>
       </c>
       <c r="J17">
-        <v>10.97836702928848</v>
+        <v>7.326576291471229</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.00867720747127</v>
+        <v>12.78687617819585</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.97281693905819</v>
+        <v>14.17399290794264</v>
       </c>
       <c r="O17">
-        <v>20.11845864112016</v>
+        <v>16.12570293724742</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.71739668763436</v>
+        <v>20.08384992289095</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.77626097165461</v>
+        <v>6.139498692583596</v>
       </c>
       <c r="E18">
-        <v>15.77237752702514</v>
+        <v>10.23428535209591</v>
       </c>
       <c r="F18">
-        <v>27.65353977506753</v>
+        <v>21.38853404534841</v>
       </c>
       <c r="G18">
-        <v>26.87140718819145</v>
+        <v>28.99710714141591</v>
       </c>
       <c r="H18">
-        <v>13.31820592326053</v>
+        <v>8.863317313123039</v>
       </c>
       <c r="I18">
-        <v>22.81155975363322</v>
+        <v>12.09169429609138</v>
       </c>
       <c r="J18">
-        <v>10.97989708703695</v>
+        <v>7.323454108049596</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.96278855326996</v>
+        <v>12.63612032915238</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.9700748417575</v>
+        <v>14.14620529604458</v>
       </c>
       <c r="O18">
-        <v>20.10927763708429</v>
+        <v>16.00196081171002</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.68890112433609</v>
+        <v>20.00296384182239</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.77871119715397</v>
+        <v>6.144748715353362</v>
       </c>
       <c r="E19">
-        <v>15.77461383591557</v>
+        <v>10.23696411267476</v>
       </c>
       <c r="F19">
-        <v>27.65161071818671</v>
+        <v>21.3370362039868</v>
       </c>
       <c r="G19">
-        <v>26.8492501795541</v>
+        <v>28.88638071709514</v>
       </c>
       <c r="H19">
-        <v>13.31897976998206</v>
+        <v>8.850393338153733</v>
       </c>
       <c r="I19">
-        <v>22.82237127055237</v>
+        <v>12.12409747755537</v>
       </c>
       <c r="J19">
-        <v>10.98042623883921</v>
+        <v>7.322415754865935</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.94721799476713</v>
+        <v>12.5846755298465</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.96917819281291</v>
+        <v>14.13685549091685</v>
       </c>
       <c r="O19">
-        <v>20.10625094719841</v>
+        <v>15.96009922579261</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.8168189195425</v>
+        <v>20.36455929241813</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.76776015012523</v>
+        <v>6.121270051303238</v>
       </c>
       <c r="E20">
-        <v>15.76464668927905</v>
+        <v>10.2250894669694</v>
       </c>
       <c r="F20">
-        <v>27.66077052353129</v>
+        <v>21.56926859127329</v>
       </c>
       <c r="G20">
-        <v>26.9494084174126</v>
+        <v>29.38323862241718</v>
       </c>
       <c r="H20">
-        <v>13.31566250745844</v>
+        <v>8.908882876817493</v>
       </c>
       <c r="I20">
-        <v>22.77399818766056</v>
+        <v>11.97867767386623</v>
       </c>
       <c r="J20">
-        <v>10.97808911813324</v>
+        <v>7.327163040269763</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.01715395819801</v>
+        <v>12.81458712832632</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.9733395140287</v>
+        <v>14.1791635756752</v>
       </c>
       <c r="O20">
-        <v>20.12019666923957</v>
+        <v>16.14862086750935</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.24072705055156</v>
+        <v>21.54563044304017</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.73228027280916</v>
+        <v>6.04498247244475</v>
       </c>
       <c r="E21">
-        <v>15.73284305443662</v>
+        <v>10.18835348940474</v>
       </c>
       <c r="F21">
-        <v>27.6999066707562</v>
+        <v>22.35751857856015</v>
       </c>
       <c r="G21">
-        <v>27.29347866085748</v>
+        <v>31.02698782770002</v>
       </c>
       <c r="H21">
-        <v>13.30740524416211</v>
+        <v>9.111136338949086</v>
       </c>
       <c r="I21">
-        <v>22.61635926983292</v>
+        <v>11.49691574195828</v>
       </c>
       <c r="J21">
-        <v>10.97100615316399</v>
+        <v>7.344412355502751</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.2496113985777</v>
+        <v>13.5592093292327</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.98951925631935</v>
+        <v>14.32537005751433</v>
       </c>
       <c r="O21">
-        <v>20.17271803275302</v>
+        <v>16.78404733720922</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.51297709957049</v>
+        <v>22.31847644226431</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.71006847225568</v>
+        <v>5.997092259166254</v>
       </c>
       <c r="E22">
-        <v>15.71330824768128</v>
+        <v>10.16671295211313</v>
       </c>
       <c r="F22">
-        <v>27.73168892013685</v>
+        <v>22.87802908996674</v>
       </c>
       <c r="G22">
-        <v>27.52359744826172</v>
+        <v>32.08145462903046</v>
       </c>
       <c r="H22">
-        <v>13.30415892965091</v>
+        <v>9.247544566524601</v>
       </c>
       <c r="I22">
-        <v>22.51696289419995</v>
+        <v>11.18697597744087</v>
       </c>
       <c r="J22">
-        <v>10.96694723157335</v>
+        <v>7.356646651900014</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.39944122322631</v>
+        <v>14.02520938021378</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.00171717074946</v>
+        <v>14.42392412845138</v>
       </c>
       <c r="O22">
-        <v>20.21123134348308</v>
+        <v>17.20036387352938</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.36813706041096</v>
+        <v>21.90923456617309</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.72183418989965</v>
+        <v>6.022469881342875</v>
       </c>
       <c r="E23">
-        <v>15.72362021387983</v>
+        <v>10.17804536205563</v>
       </c>
       <c r="F23">
-        <v>27.71416031839676</v>
+        <v>22.59977050483151</v>
       </c>
       <c r="G23">
-        <v>27.40032306807642</v>
+        <v>31.52051756333567</v>
       </c>
       <c r="H23">
-        <v>13.30569497826824</v>
+        <v>9.174357746111802</v>
       </c>
       <c r="I23">
-        <v>22.56968133851236</v>
+        <v>11.35195756389739</v>
       </c>
       <c r="J23">
-        <v>10.96906159135323</v>
+        <v>7.350029527763071</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.31967951148962</v>
+        <v>13.7783790218411</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.99505933657598</v>
+        <v>14.37105109540487</v>
       </c>
       <c r="O23">
-        <v>20.19029530199828</v>
+        <v>16.97810204939991</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.80981529816204</v>
+        <v>20.34486031816793</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.76835657754333</v>
+        <v>6.122549692050704</v>
       </c>
       <c r="E24">
-        <v>15.7651876874184</v>
+        <v>10.22572970385621</v>
       </c>
       <c r="F24">
-        <v>27.66023599817685</v>
+        <v>21.55648384694499</v>
       </c>
       <c r="G24">
-        <v>26.94387883714631</v>
+        <v>29.35604779822707</v>
       </c>
       <c r="H24">
-        <v>13.31583380482975</v>
+        <v>8.905649198955256</v>
       </c>
       <c r="I24">
-        <v>22.77663618323279</v>
+        <v>11.98663731709633</v>
       </c>
       <c r="J24">
-        <v>10.97821455868518</v>
+        <v>7.326897436070888</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.01332231127518</v>
+        <v>12.80206648954827</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.97310268700832</v>
+        <v>14.17682489572425</v>
       </c>
       <c r="O24">
-        <v>20.11940943892816</v>
+        <v>16.13825925426522</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.18974855795266</v>
+        <v>18.55128748470795</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.82275061843148</v>
+        <v>6.238753225953073</v>
       </c>
       <c r="E25">
-        <v>15.81542625837454</v>
+        <v>10.28725524098877</v>
       </c>
       <c r="F25">
-        <v>27.62886571746366</v>
+        <v>20.45813806301032</v>
       </c>
       <c r="G25">
-        <v>26.47650109825117</v>
+        <v>26.94154360940681</v>
       </c>
       <c r="H25">
-        <v>13.33601546595847</v>
+        <v>8.634265790896404</v>
       </c>
       <c r="I25">
-        <v>23.01554179400678</v>
+        <v>12.69345744526608</v>
       </c>
       <c r="J25">
-        <v>10.99055674280859</v>
+        <v>7.306118545422096</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.67531323344015</v>
+        <v>11.65966071969715</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.95648408536181</v>
+        <v>13.98034948976948</v>
       </c>
       <c r="O25">
-        <v>20.06114194036396</v>
+        <v>15.24002676709563</v>
       </c>
     </row>
   </sheetData>
